--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -1138,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A19:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>PD14</t>
   </si>
@@ -53,30 +53,6 @@
   </si>
   <si>
     <t>OLED_DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD15 </t>
-  </si>
-  <si>
-    <t>步进电机 旋转方向控制</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>步进电机 使能</t>
-  </si>
-  <si>
-    <t>PB14</t>
-  </si>
-  <si>
-    <t>TIM12 CH1</t>
-  </si>
-  <si>
-    <t>步进电机角度控制PWM</t>
-  </si>
-  <si>
-    <t>PB15</t>
   </si>
   <si>
     <t>PA9</t>
@@ -1136,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A19:C48"/>
+  <dimension ref="A19:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1180,199 +1156,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
         <v>39</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="C39" t="s">
         <v>41</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="C44" t="s">
         <v>50</v>
-      </c>
-      <c r="B46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -91,7 +91,7 @@
     <t>串口4TX</t>
   </si>
   <si>
-    <t>接收摄像头数据</t>
+    <t>控制屏幕</t>
   </si>
   <si>
     <t>PC11</t>
@@ -1115,7 +1115,7 @@
   <dimension ref="A19:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>PD14</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>串口3RX</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>步进电机滑台脉冲</t>
+  </si>
+  <si>
+    <t>TIM3CH1</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>步进电机使能</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>步进电机方向</t>
   </si>
   <si>
     <t>PD3</t>
@@ -1112,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A19:C44"/>
+  <dimension ref="A19:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1251,30 +1272,30 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1286,37 +1307,64 @@
         <v>41</v>
       </c>
     </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B45" t="s">
         <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>PD14</t>
   </si>
@@ -76,7 +76,7 @@
     <t>串口2TX</t>
   </si>
   <si>
-    <t>接收摄像头2数据</t>
+    <t>接收摄像头</t>
   </si>
   <si>
     <t>PA3</t>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>串口4RX</t>
+  </si>
+  <si>
+    <t>接收二维码摄像头2数据</t>
   </si>
   <si>
     <t>PC12</t>
@@ -1136,7 +1139,7 @@
   <dimension ref="A19:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1226,145 +1229,148 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,13 +142,13 @@
     <t>TIM3CH1</t>
   </si>
   <si>
-    <t>PC2</t>
+    <t>PC5</t>
   </si>
   <si>
     <t>步进电机使能</t>
   </si>
   <si>
-    <t>PC3</t>
+    <t>PA7</t>
   </si>
   <si>
     <t>步进电机方向</t>
@@ -1138,14 +1138,14 @@
   <sheetPr/>
   <dimension ref="A19:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="17.525" customWidth="1"/>
-    <col min="3" max="3" width="29.5666666666667" customWidth="1"/>
+    <col min="2" max="2" width="17.5277777777778" customWidth="1"/>
+    <col min="3" max="3" width="29.5648148148148" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="19" spans="1:3">
@@ -1389,7 +1389,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1406,7 +1406,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/stm32f407zet6Stepper/IO资源表.xlsx
+++ b/stm32f407zet6Stepper/IO资源表.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>PD14</t>
   </si>
@@ -142,13 +142,10 @@
     <t>TIM3CH1</t>
   </si>
   <si>
-    <t>PC5</t>
+    <t>PC2</t>
   </si>
   <si>
     <t>步进电机使能</t>
-  </si>
-  <si>
-    <t>PA7</t>
   </si>
   <si>
     <t>步进电机方向</t>
@@ -1138,8 +1135,8 @@
   <sheetPr/>
   <dimension ref="A19:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1299,78 +1296,78 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
         <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
         <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
         <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>46</v>
-      </c>
-      <c r="C41" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
         <v>48</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>51</v>
-      </c>
-      <c r="C45" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" t="s">
         <v>53</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
